--- a/cases/exmple.xlsx
+++ b/cases/exmple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,23 +42,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/s5/login.mobile</t>
+    <t>关联参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联接口路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/login.mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
@@ -69,81 +78,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"code":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"17711794059"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少code参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少phone参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号未绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0;err_msg=您的手机号未绑定钱咖帐号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=10001;err_msg=您的手机号未绑定钱咖帐号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"phone":"17711794059","code":"123456"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联接口路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">post
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/dashboard</t>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code:40101;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">err_code:10001;
-err_msg:您的手机号未绑定钱咖帐号
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code:1000;
-err_msg:您的手机号未绑定钱咖帐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code:1000;
-err_msg:您的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code:1000;
-err_msg:您的手机号未绑定钱咖帐号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{"Server": "nginx", "Date": "Fri, 18 Jan 2019 10:13:31 GMT", "Content-Type": "application/json; charset=utf8", "Transfer-Encoding": "chunked", "Connection": "keep-alive", "Vary": "Accept-Encoding", "Access-Control-Allow-Origin": "*", "Access-Control-Allow-Credentials": "true", "Set-Cookie": "DIS4=8fa3ff82d99342e5b0d266b575251a25; Expires=Sat, 18-Jan-2020 10:13:31 GMT; Max-Age=31536000; Path=/", "X-Diablo-Revision": "1514b76", "X-Hebe-Host": "h1570", "X-Qk-Lb-Overloading-Level": "0", "Content-Encoding": "gzip"}
-</t>
+    <t>err_code=1;err_msg=缺少参数:cod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0;err_msg=缺少参数:phon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -512,7 +487,7 @@
     <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -526,138 +501,123 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="217.5">
+    <row r="2" spans="1:11" ht="28.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="42">
+    <row r="3" spans="1:11" ht="28.5">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:11" ht="28.5">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="42">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
+    <row r="6" spans="1:11" ht="18">
+      <c r="C6" s="1"/>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cases/exmple.xlsx
+++ b/cases/exmple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联接口路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>headers信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phone":"17711794059"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺少code参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +111,22 @@
   </si>
   <si>
     <t>err_code=0;err_msg=缺少参数:phon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,154 +478,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="5" width="39.625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="6" width="39.625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5">
+    <row r="2" spans="1:12" ht="28.5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="42">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="28.5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="42">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18">
-      <c r="C6" s="1"/>
-      <c r="I6" s="2"/>
+    <row r="6" spans="1:12" ht="18">
+      <c r="D6" s="1"/>
+      <c r="J6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cases/exmple.xlsx
+++ b/cases/exmple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺少code参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,30 +90,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>err_code=0;err_msg=您的手机号未绑定钱咖帐号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code=10001;err_msg=您的手机号未绑定钱咖帐号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"phone":"17711794059","code":"123456"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>err_code=1;err_msg=缺少参数:cod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code=0;err_msg=缺少参数:phon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{code}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关联接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +103,25 @@
   </si>
   <si>
     <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5/create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/bindMobile</t>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"17711794054","code":"4883"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +476,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -500,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -518,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -533,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5">
+    <row r="2" spans="1:12" ht="18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -541,58 +536,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.5">
+    <row r="3" spans="1:12" ht="18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.5">
+    <row r="4" spans="1:12" ht="18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -600,25 +589,23 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42">
+    <row r="5" spans="1:12" ht="18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -626,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -637,11 +624,9 @@
       <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18">

--- a/cases/exmple.xlsx
+++ b/cases/exmple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>{"phone":"17711794054","code":"4883"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -586,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -602,7 +606,7 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18">

--- a/cases/exmple.xlsx
+++ b/cases/exmple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,86 +42,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>headers信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/login.mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"17711794059","code":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少code参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少phone参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号未绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"17711794059","code":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5/create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/bindMobile</t>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"17711794054","code":"4883"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>关联参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>headers信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/login.mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"17711794059","code":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少code参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少phone参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号未绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"17711794059","code":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s5/create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/bindMobile</t>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"17711794054","code":"4883"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
+    <t>接口检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">err_code=1;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">err_code=4001;
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,29 +499,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="6" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="10" max="12" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -511,28 +534,34 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="18">
+    <row r="2" spans="1:14" ht="28.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -540,22 +569,30 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" t="s">
-        <v>17</v>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18">
+    <row r="3" spans="1:14" ht="28.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -563,29 +600,37 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18">
+    <row r="4" spans="1:14" ht="18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -593,23 +638,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" t="s">
-        <v>27</v>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18">
+    <row r="5" spans="1:14" ht="18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -617,25 +664,29 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" t="s">
-        <v>23</v>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18">
+    <row r="6" spans="1:14" ht="18">
       <c r="D6" s="1"/>
       <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cases/exmple.xlsx
+++ b/cases/exmple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,27 +50,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5/create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"17711794054","code":"4883"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/bindMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/s4/login.mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"17711794059","code":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少code参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少phone参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号未绑定</t>
+    <t>创建用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,76 +134,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phone":"17711794059","code":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s5/create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/bindMobile</t>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"17711794054","code":"4883"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库期望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">err_code=1;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">err_code=4001;
-</t>
+    <t>a=4;b=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"17711794054","code":"$code"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +172,15 @@
     <font>
       <sz val="13.5"/>
       <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13.5"/>
+      <color rgb="FF9876AA"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -199,12 +207,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -499,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -522,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -540,19 +549,19 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
@@ -561,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="28.5">
+    <row r="2" spans="1:14" ht="18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,30 +578,24 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.5">
+    <row r="3" spans="1:14" ht="18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -600,34 +603,30 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18">
@@ -638,22 +637,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18">
@@ -661,19 +660,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -681,12 +677,6 @@
       <c r="M5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="18">
-      <c r="D6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cases/exmple.xlsx
+++ b/cases/exmple.xlsx
@@ -62,87 +62,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"phone":"17711794054","code":"4883"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/bindMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=4;b=5;c.d=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code;err_msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"err_code":"$err_code","err_msg":"$err_msg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/login.mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/s5/create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"17711794054","code":"4883"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库期望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/bindMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/dashboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/login.mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=4;b=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"17711794054","code":"$code"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,19 +510,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="49.125" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
     <col min="10" max="12" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -549,19 +549,19 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
@@ -578,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -592,7 +592,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18">
@@ -603,13 +603,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -618,15 +618,15 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18">
@@ -637,13 +637,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
@@ -652,7 +652,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18">
@@ -663,19 +663,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
